--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>tes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,8 +68,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -338,12 +374,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>